--- a/data/trans_dic/P23_8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 18,14</t>
+          <t>2,49; 21,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,71</t>
+          <t>0,0; 10,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,32</t>
+          <t>0,0; 7,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 16,67</t>
+          <t>1,03; 15,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 14,51</t>
+          <t>3,3; 19,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,66</t>
+          <t>2,47; 21,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 14,38</t>
+          <t>7,13; 25,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,0</t>
+          <t>6,62; 31,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,25</t>
+          <t>4,59; 15,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 12,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 15,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 20,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,76%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,49%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,69</t>
+          <t>1,94; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,61</t>
+          <t>0,6; 20,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,04</t>
+          <t>2,95; 12,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 13,06</t>
+          <t>3,7; 13,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,39</t>
+          <t>3,01; 9,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,37</t>
+          <t>2,12; 8,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,27</t>
+          <t>2,24; 9,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,87</t>
+          <t>3,44; 10,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,17</t>
+          <t>3,13; 7,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 14,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 9,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 10,08</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,48</t>
+          <t>0,61; 6,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 11,45</t>
+          <t>0,85; 18,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,12</t>
+          <t>0,93; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,32</t>
+          <t>4,97; 16,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,01</t>
+          <t>0,94; 5,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,98</t>
+          <t>1,07; 6,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,48</t>
+          <t>1,26; 6,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,3</t>
+          <t>3,65; 11,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,52</t>
+          <t>1,1; 4,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 10,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 5,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 11,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 14,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 8,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 11,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 7,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 8,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 11,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 6,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 9,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 7,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11392</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10550</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12523</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8748</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17583</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28356</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23915</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10800</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19153</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38906</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3153; 26707</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10292</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8332</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1800; 27844</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4478; 26044</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2468; 21193</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8392; 30182</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11378; 54150</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12042; 41156</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3761; 24439</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9216; 35569</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17168; 69285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18743</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21198</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25389</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36394</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26464</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18048</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17056</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31066</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45207</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39246</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42445</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>67460</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8328; 37047</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2229; 75404</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11652; 50579</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18405; 67287</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13834; 44139</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7958; 32022</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8291; 34337</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16819; 53166</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27781; 70174</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18241; 107667</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26079; 71761</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42716; 99486</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7290</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14732</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8295</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32798</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10466</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11854</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11212</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17757</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26586</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19507</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59176</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2029; 20220</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2372; 51273</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2564; 20896</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17284; 57266</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4008; 21814</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3675; 22707</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4130; 22845</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14433; 44477</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8350; 34358</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12339; 65988</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10040; 34205</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40372; 87713</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37425</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37983</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35255</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>79741</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>49454</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38649</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>85801</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86879</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>76632</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81105</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>165542</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22519; 59240</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11524; 106507</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20157; 64941</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>53027; 119878</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30207; 72572</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24802; 59049</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30264; 68438</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>60541; 123625</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>60713; 119634</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45670; 146624</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>56188; 113137</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>124886; 218968</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
